--- a/data/trans_camb/P31_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 9,3</t>
+          <t>-9,26; 7,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 16,48</t>
+          <t>-3,22; 25,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 14,36</t>
+          <t>-10,79; 5,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 12,1</t>
+          <t>-1,69; 14,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 10,53</t>
+          <t>-4,99; 11,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 10,32</t>
+          <t>-7,68; 8,94</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 9,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 14,35</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 4,88</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>-14,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,11%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26,62%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-5,21%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 82,26</t>
+          <t>-46,75; 64,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 137,11</t>
+          <t>-23,37; 237,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 91,64</t>
+          <t>-54,28; 49,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 80,47</t>
+          <t>-7,33; 103,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 74,77</t>
+          <t>-23,54; 79,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 68,87</t>
+          <t>-36,18; 68,0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,39; 66,61</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 99,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-34,22; 35,07</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,93</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>7,31</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,62</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,65</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 13,34</t>
+          <t>-1,33; 18,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 8,55</t>
+          <t>-4,85; 14,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 18,81</t>
+          <t>-9,38; 8,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 13,94</t>
+          <t>-0,09; 20,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 13,23</t>
+          <t>-0,94; 20,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 8,44</t>
+          <t>-2,83; 22,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 15,88</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 13,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 12,11</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>54,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>-6,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>28,94%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42,12%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32,46%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 103,27</t>
+          <t>-9,72; 170,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 65,26</t>
+          <t>-25,95; 136,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 82,25</t>
+          <t>-47,92; 77,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 61,45</t>
+          <t>-0,95; 98,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 66,81</t>
+          <t>-3,41; 97,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 45,33</t>
+          <t>-10,86; 105,53</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 94,47</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 80,31</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-19,46; 68,36</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-13,05</t>
+          <t>-35,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,68</t>
+          <t>-23,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,89</t>
+          <t>16,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-15,77</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-10,28</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 25,64</t>
+          <t>-51,04; 33,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-43,22; 2,3</t>
+          <t>-69,78; -11,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 28,39</t>
+          <t>-57,29; 4,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 29,75</t>
+          <t>-4,84; 38,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 20,59</t>
+          <t>-14,44; 27,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 11,83</t>
+          <t>-17,29; 24,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,28; 26,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-44,96; 0,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-38,52; 7,26</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>-22,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-54,41%</t>
+          <t>-93,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>-62,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11,95%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-48,15%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-31,4%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,6; 224,26</t>
+          <t>-100,0; 220,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,51; 27,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 147,49</t>
+          <t>-94,09; 55,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 151,07</t>
+          <t>-16,66; 228,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 108,33</t>
+          <t>-44,76; 183,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 61,31</t>
+          <t>-48,42; 147,36</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-51,29; 125,65</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-84,75; 4,9</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-72,43; 42,76</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5,41</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,97</t>
+          <t>-6,56; 9,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 7,49</t>
+          <t>-7,57; 10,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 14,35</t>
+          <t>-12,81; 1,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,49</t>
+          <t>2,38; 14,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,98</t>
+          <t>-0,69; 11,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 7,19</t>
+          <t>-3,34; 10,68</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 10,6</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 8,36</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 4,78</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>-23,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27,17%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 67,47</t>
+          <t>-31,43; 65,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 54,73</t>
+          <t>-38,06; 73,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,48; 70,2</t>
+          <t>-57,12; 11,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 55,9</t>
+          <t>9,41; 75,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,89; 54,74</t>
+          <t>-3,11; 61,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 39,57</t>
+          <t>-14,63; 53,91</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 58,71</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 48,03</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-25,15; 26,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
